--- a/Tableau_competence_Lohan.xlsx
+++ b/Tableau_competence_Lohan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohaninho\Documents\PortFolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpoulain/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC28A90-679D-4F4F-BE15-CEF8F4447DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D507E8-3D2D-EB4C-A2D5-6ADE48C9DC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t xml:space="preserve"> ███████████████</t>
+  </si>
+  <si>
+    <t>Mise à jour de composants applicatifs et corrections des problèmes rencontrés</t>
+  </si>
+  <si>
+    <t>Tests techniques et validation du fonctionnement du service</t>
+  </si>
+  <si>
+    <t>Utilisation et test d'une API métier</t>
+  </si>
+  <si>
+    <t>Intégration dans un environnement de travail professionnel</t>
+  </si>
+  <si>
+    <t>Mise à jour technique du framework Symfony et du bundle EasyAdmin</t>
   </si>
 </sst>
 </file>
@@ -228,6 +243,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -261,7 +277,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -667,7 +689,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -708,6 +730,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,6 +814,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -765,49 +838,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,70 +1158,70 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1195,23 +1232,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1233,9 +1270,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1290,17 +1327,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1337,15 +1374,15 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1382,15 +1419,15 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1427,15 +1464,15 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1472,15 +1509,15 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1517,15 +1554,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1562,15 +1599,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1607,15 +1644,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1652,15 +1689,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1697,15 +1734,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1742,15 +1779,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1787,17 +1824,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1834,23 +1871,23 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="46" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="18"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1887,21 +1924,21 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="46" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="46" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="18"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1938,19 +1975,19 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="46" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="47" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I22"/>
@@ -1989,21 +2026,21 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="46" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="18"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2040,17 +2077,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="47" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I24"/>
@@ -2089,15 +2126,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2134,15 +2171,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2179,17 +2216,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2226,15 +2263,17 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="51"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2271,15 +2310,17 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="18"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2316,15 +2357,17 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="26"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2361,15 +2404,17 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="18"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2406,15 +2451,17 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="26"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2451,15 +2498,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2496,15 +2543,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2541,7 +2588,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2586,52 +2633,52 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>

--- a/Tableau_competence_Lohan.xlsx
+++ b/Tableau_competence_Lohan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpoulain/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D507E8-3D2D-EB4C-A2D5-6ADE48C9DC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21361FB3-7D76-8B4F-8A6A-0C751A3AD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-76800" yWindow="-1340" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Travail collaboratif et gestion de versions dans un projet de développement</t>
-  </si>
-  <si>
-    <t>Participer à la mise à disposition et à l'exploitation d'un service applicatif</t>
   </si>
   <si>
     <t>Montée en compétences sur Symfony et outils de développement professionnels</t>
@@ -689,7 +686,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,9 +742,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -772,9 +766,51 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,52 +835,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,8 +1158,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1172,56 +1172,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="49"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1233,22 +1233,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1271,8 +1271,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1328,16 +1328,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1825,16 +1825,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1877,15 +1877,15 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="24" t="s">
-        <v>33</v>
+      <c r="G20" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20"/>
@@ -1930,13 +1930,13 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="24" t="s">
-        <v>32</v>
+      <c r="D21" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="24" t="s">
-        <v>32</v>
+      <c r="G21" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21"/>
@@ -1983,12 +1983,12 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="24" t="s">
-        <v>33</v>
+      <c r="F22" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="25" t="s">
-        <v>33</v>
+      <c r="H22" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2033,14 +2033,10 @@
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="E23" s="53"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="18"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="25"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2078,18 +2074,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="H24" s="52"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2217,16 +2209,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2265,15 +2257,15 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="18"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2312,14 +2304,14 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="50"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="18"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2359,15 +2351,15 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="15"/>
-      <c r="C30" s="50"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2406,14 +2398,14 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="52"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="18"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2453,15 +2445,15 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2544,14 +2536,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2681,6 +2673,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2688,11 +2685,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2703,13 +2695,10 @@
     <hyperlink ref="G21" r:id="rId5" location="stage1-disposition-service2" xr:uid="{30BD59F8-C79B-42AE-BF40-8EBD8D4DD677}"/>
     <hyperlink ref="F22" r:id="rId6" location="stage1-travail-collectif" xr:uid="{CD9E0D08-39FC-4FFD-8619-05290AA05CC7}"/>
     <hyperlink ref="H22" r:id="rId7" location="stage1-organiser-developpement" xr:uid="{CB3B1945-60A7-43D1-9B6C-EA6AD0576EC9}"/>
-    <hyperlink ref="E23" r:id="rId8" location="stage1-presence-en-ligne2" xr:uid="{B32643D6-657D-493E-A06D-53B5FF61DFA7}"/>
-    <hyperlink ref="G23" r:id="rId9" location="stage1-disposition-service3" xr:uid="{510F2DF0-2340-4C37-AA9F-01B8FFB881EB}"/>
-    <hyperlink ref="H24" r:id="rId10" location="stage1-organiser-developpement2" xr:uid="{EB7E54B1-886A-4BAF-BA43-071E89C418B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId8"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Tableau_competence_Lohan.xlsx
+++ b/Tableau_competence_Lohan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpoulain/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpoulain/Documents/PortFolio1-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21361FB3-7D76-8B4F-8A6A-0C751A3AD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC356BD-FB3A-C544-A09D-EC805EBCCD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-1340" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-76800" yWindow="-1340" windowWidth="38400" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -152,10 +152,13 @@
     <t>Utilisation et test d'une API métier</t>
   </si>
   <si>
-    <t>Intégration dans un environnement de travail professionnel</t>
-  </si>
-  <si>
     <t>Mise à jour technique du framework Symfony et du bundle EasyAdmin</t>
+  </si>
+  <si>
+    <t>Mise à jour technique de PHP et du bundle EasyAdmin</t>
+  </si>
+  <si>
+    <t>Correction de divers problèmes techniques</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -273,6 +276,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -686,7 +695,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -769,6 +778,18 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,16 +856,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1172,56 +1187,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="53"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1233,22 +1248,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1271,8 +1286,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1328,16 +1343,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1825,16 +1840,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2033,9 +2048,9 @@
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="25"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2074,14 +2089,16 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="52"/>
+      <c r="H24" s="30"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2209,16 +2226,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2257,7 +2274,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
@@ -2445,15 +2462,15 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="55"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
